--- a/data/stopwords.xlsx
+++ b/data/stopwords.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Git projects/stats_section/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{247D78DE-F642-45E2-8AC0-5B48667A056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{247D78DE-F642-45E2-8AC0-5B48667A056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D9ADFB7-DC73-45D2-B787-0CC90E3F94B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stopwords" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="184">
   <si>
     <t>i</t>
   </si>
@@ -578,7 +578,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1412,11 +1412,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
         <v>119</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
         <v>119</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
         <v>119</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
         <v>119</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
         <v>119</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
         <v>119</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
         <v>119</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
         <v>119</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
         <v>119</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
         <v>119</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
         <v>119</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B138" t="s">
         <v>119</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B139" t="s">
         <v>119</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B140" t="s">
         <v>119</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
         <v>119</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B142" t="s">
         <v>119</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B143" t="s">
         <v>119</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B144" t="s">
         <v>119</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B145" t="s">
         <v>119</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B146" t="s">
         <v>119</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s">
         <v>119</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B148" t="s">
         <v>119</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B149" t="s">
         <v>119</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B150" t="s">
         <v>119</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B151" t="s">
         <v>119</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
         <v>119</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B153" t="s">
         <v>119</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
         <v>119</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B155" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B156" t="s">
         <v>119</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B157" t="s">
         <v>119</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B158" t="s">
         <v>119</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B159" t="s">
         <v>119</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B160" t="s">
         <v>119</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B162" t="s">
         <v>119</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B163" t="s">
         <v>119</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B164" t="s">
         <v>119</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B165" t="s">
         <v>119</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B166" t="s">
         <v>119</v>
@@ -2755,73 +2755,9 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B167" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>174</v>
-      </c>
-      <c r="B168" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>175</v>
-      </c>
-      <c r="B169" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>176</v>
-      </c>
-      <c r="B170" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>177</v>
-      </c>
-      <c r="B171" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>178</v>
-      </c>
-      <c r="B172" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>179</v>
-      </c>
-      <c r="B173" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>180</v>
-      </c>
-      <c r="B174" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>181</v>
-      </c>
-      <c r="B175" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2831,11 +2767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,6 +2836,22 @@
         <v>119</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/stopwords.xlsx
+++ b/data/stopwords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Git projects/stats_section/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{247D78DE-F642-45E2-8AC0-5B48667A056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D9ADFB7-DC73-45D2-B787-0CC90E3F94B5}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:40009_{247D78DE-F642-45E2-8AC0-5B48667A056B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{411B9442-E404-4D3A-84B4-81052AEC64B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stopwords" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="187">
   <si>
     <t>i</t>
   </si>
@@ -573,6 +573,15 @@
   </si>
   <si>
     <t>stopword</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>using</t>
   </si>
 </sst>
 </file>
@@ -1413,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,6 +2770,30 @@
         <v>119</v>
       </c>
     </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>184</v>
+      </c>
+      <c r="B168" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>185</v>
+      </c>
+      <c r="B169" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B170" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2770,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
